--- a/说明文档/发售模块说明.xlsx
+++ b/说明文档/发售模块说明.xlsx
@@ -280,30 +280,6 @@
     <t>A2008-T-A</t>
   </si>
   <si>
-    <t>J20-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J20-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J20-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J20-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J20-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J20-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +304,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DC+5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可控5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2008H-2*9P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB9(母头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN发售模块线序表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J10-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J10-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J10-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备票区电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售票口电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块到位开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备票区对射传感器接收端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备票区对射传感器发射端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线区对射传感器接收端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线区对射传感器发射端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收口对射传感器接收端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收口对射传感器发射端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPPER_PWR_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPPER通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPPER1主控板J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPPER2主控板J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPPER1主控板J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPPER2主控板J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC+24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4201HF-2*2P(CJT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4201HF-2*2P(CJT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4201F-T</t>
+  </si>
+  <si>
+    <t>C4201F-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4201F-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-6P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J9-3</t>
+  </si>
+  <si>
+    <t>J9-6</t>
+  </si>
+  <si>
+    <t>J9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J9-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J9-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：红色标注需核对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID板J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票箱1RFID天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票箱2RFID天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清票箱RFID天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废票箱RFID天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID板J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID板J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID板J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>J4-18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,14 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DC+5V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>J4-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,341 +673,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可控5V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2008H-2*9P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB9-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB9(母头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接点</t>
+    <t>J3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>J2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN发售模块线序表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J10-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J10-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J10-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备票区电磁铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售票口电磁铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块到位开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备票区对射传感器接收端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备票区对射传感器发射端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天线区对射传感器接收端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天线区对射传感器发射端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收口对射传感器接收端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收口对射传感器发射端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPPER_PWR_OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPPER通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPPER1主控板J1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPPER2主控板J1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPPER1主控板J4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPPER2主控板J4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC+24V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主控板J3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4201HF-2*2P(CJT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4201HF-2*2P(CJT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4201F-T</t>
-  </si>
-  <si>
-    <t>C4201F-T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4201F-T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3-2</t>
-  </si>
-  <si>
-    <t>J3-3</t>
-  </si>
-  <si>
-    <t>J3-4</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2508H-2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2508H-3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2508H-3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2508H-2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主控板J9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2508H-6P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J9-3</t>
-  </si>
-  <si>
-    <t>J9-6</t>
-  </si>
-  <si>
-    <t>J9-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J9-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J9-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J9-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：红色标注需核对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFID板J1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>票箱1RFID天线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>票箱2RFID天线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清票箱RFID天线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废票箱RFID天线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFID板J2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFID板J3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFID板J4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,65 +893,65 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,7 +1565,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1584,24 +1587,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="A1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -1623,7 +1626,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>22</v>
@@ -1635,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>32</v>
@@ -1658,171 +1661,171 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="30" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="34" t="s">
         <v>35</v>
       </c>
       <c r="O3" s="4"/>
-      <c r="P3" s="35"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="36"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="N5" s="30" t="s">
+      <c r="M5" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>39</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="31" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="37"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="31" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="36"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>8</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="14"/>
@@ -1836,10 +1839,10 @@
       <c r="L8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="20" t="s">
+      <c r="M8" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="33" t="s">
         <v>51</v>
       </c>
       <c r="O8" s="4"/>
@@ -1850,9 +1853,9 @@
         <v>9</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
@@ -1864,8 +1867,8 @@
       <c r="L9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
@@ -1874,13 +1877,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="14"/>
@@ -1894,10 +1897,10 @@
       <c r="L10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="33" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="4"/>
@@ -1908,9 +1911,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
@@ -1922,8 +1925,8 @@
       <c r="L11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
@@ -1932,13 +1935,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="30" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="14"/>
@@ -1952,10 +1955,10 @@
       <c r="L12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="33" t="s">
         <v>56</v>
       </c>
       <c r="O12" s="4"/>
@@ -1966,9 +1969,9 @@
         <v>13</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="14"/>
@@ -1980,8 +1983,8 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
@@ -1990,32 +1993,32 @@
         <v>14</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="33" t="s">
         <v>65</v>
       </c>
       <c r="O14" s="4"/>
@@ -2026,26 +2029,26 @@
         <v>15</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="14" t="s">
-        <v>69</v>
+      <c r="K15" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
@@ -2054,28 +2057,28 @@
         <v>16</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="14" t="s">
-        <v>70</v>
+      <c r="K16" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
@@ -2084,26 +2087,26 @@
         <v>17</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="14" t="s">
-        <v>71</v>
+      <c r="K17" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
@@ -2112,28 +2115,28 @@
         <v>18</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>111</v>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
@@ -2142,26 +2145,26 @@
         <v>19</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14" t="s">
-        <v>73</v>
+      <c r="K19" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
@@ -2170,33 +2173,33 @@
         <v>20</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>113</v>
+      <c r="D20" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="18" t="s">
         <v>80</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2206,26 +2209,26 @@
         <v>21</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="18" t="s">
         <v>81</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
@@ -2234,26 +2237,26 @@
         <v>22</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14" t="s">
-        <v>82</v>
+      <c r="K22" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
@@ -2262,28 +2265,28 @@
         <v>23</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21" t="s">
-        <v>114</v>
+      <c r="C23" s="33"/>
+      <c r="D23" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="14" t="s">
-        <v>85</v>
+      <c r="K23" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
@@ -2292,26 +2295,26 @@
         <v>24</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="14" t="s">
-        <v>86</v>
+      <c r="K24" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
@@ -2320,28 +2323,28 @@
         <v>20</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
-        <v>115</v>
+      <c r="C25" s="33"/>
+      <c r="D25" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="14" t="s">
-        <v>88</v>
+      <c r="K25" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
@@ -2350,26 +2353,26 @@
         <v>21</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
-        <v>120</v>
+      <c r="K26" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
@@ -2378,26 +2381,26 @@
         <v>22</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="14" t="s">
-        <v>121</v>
+      <c r="K27" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
@@ -2406,28 +2409,28 @@
         <v>23</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21" t="s">
-        <v>116</v>
+      <c r="C28" s="33"/>
+      <c r="D28" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="14" t="s">
-        <v>89</v>
+      <c r="K28" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
@@ -2436,26 +2439,26 @@
         <v>24</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="14" t="s">
-        <v>90</v>
+      <c r="K29" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
@@ -2464,28 +2467,28 @@
         <v>20</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21" t="s">
-        <v>117</v>
+      <c r="C30" s="33"/>
+      <c r="D30" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>54</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="14" t="s">
-        <v>91</v>
+      <c r="K30" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
@@ -2494,26 +2497,26 @@
         <v>21</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="14" t="s">
-        <v>122</v>
+      <c r="K31" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
@@ -2522,26 +2525,26 @@
         <v>22</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="14" t="s">
-        <v>123</v>
+      <c r="K32" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
@@ -2550,28 +2553,28 @@
         <v>23</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21" t="s">
-        <v>118</v>
+      <c r="C33" s="33"/>
+      <c r="D33" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="14" t="s">
-        <v>92</v>
+      <c r="K33" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
@@ -2580,26 +2583,26 @@
         <v>24</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="14" t="s">
-        <v>93</v>
+      <c r="K34" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
@@ -2607,36 +2610,36 @@
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
-      <c r="K35" s="14" t="s">
-        <v>139</v>
+      <c r="K35" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -2651,18 +2654,18 @@
         <v>40</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="14" t="s">
-        <v>140</v>
+      <c r="K36" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
@@ -2674,27 +2677,27 @@
       <c r="B37" s="4"/>
       <c r="C37" s="25"/>
       <c r="D37" s="24" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="14" t="s">
-        <v>141</v>
+      <c r="K37" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
@@ -2711,18 +2714,18 @@
         <v>40</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="14" t="s">
-        <v>142</v>
+      <c r="K38" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
@@ -2733,36 +2736,36 @@
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="24" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -2777,15 +2780,15 @@
         <v>41</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>40</v>
@@ -2805,15 +2808,15 @@
         <v>40</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>40</v>
@@ -2828,24 +2831,24 @@
       <c r="B42" s="4"/>
       <c r="C42" s="25"/>
       <c r="D42" s="27" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>40</v>
@@ -2865,15 +2868,15 @@
         <v>40</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>40</v>
@@ -2893,15 +2896,15 @@
         <v>40</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L44" s="14" t="s">
         <v>40</v>
@@ -2914,13 +2917,13 @@
     <row r="45" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="19"/>
+      <c r="C45" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="36"/>
       <c r="F45" s="4"/>
       <c r="G45" s="9"/>
       <c r="H45" s="4"/>
@@ -2928,22 +2931,22 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18" t="s">
-        <v>161</v>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37" t="s">
+        <v>142</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="R45" s="16" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="4"/>
       <c r="G46" s="9"/>
       <c r="H46" s="4"/>
@@ -2951,21 +2954,21 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="19"/>
+      <c r="C47" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="36"/>
       <c r="F47" s="4"/>
       <c r="G47" s="9"/>
       <c r="H47" s="4"/>
@@ -2973,9 +2976,9 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18" t="s">
-        <v>170</v>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -2983,9 +2986,9 @@
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="4"/>
       <c r="G48" s="9"/>
       <c r="H48" s="4"/>
@@ -2993,21 +2996,21 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="19"/>
+      <c r="C49" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="36"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="4"/>
@@ -3015,9 +3018,9 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18" t="s">
-        <v>171</v>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -3025,9 +3028,9 @@
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="4"/>
@@ -3035,21 +3038,21 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="19"/>
+      <c r="C51" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="36"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="4"/>
@@ -3057,9 +3060,9 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18" t="s">
-        <v>172</v>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -3067,9 +3070,9 @@
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="4"/>
@@ -3077,33 +3080,52 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="M39:M44"/>
-    <mergeCell ref="N39:N44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="C20:C34"/>
     <mergeCell ref="N20:N34"/>
@@ -3120,47 +3142,28 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="M39:M44"/>
+    <mergeCell ref="N39:N44"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
